--- a/ZZ/史纲2.0.xlsx
+++ b/ZZ/史纲2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Revoicy\Desktop\graguate\ZZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C98CB68-F419-4139-93B0-3EF1F6B659F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C684CA-F736-4697-B7DF-7DD72220B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{03286697-CD25-4078-B7B4-87C4533FD9B2}"/>
   </bookViews>
@@ -4043,6 +4043,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4091,12 +4094,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4108,6 +4105,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4435,7 +4435,7 @@
   <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4466,20 +4466,20 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="6" t="s">
         <v>155</v>
       </c>
@@ -4496,9 +4496,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="33" t="s">
         <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -4513,8 +4513,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="6" t="s">
         <v>150</v>
       </c>
@@ -4524,7 +4524,7 @@
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="8" t="s">
         <v>163</v>
       </c>
@@ -4541,8 +4541,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>165</v>
       </c>
@@ -4557,7 +4557,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6">
         <v>1931</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>169</v>
       </c>
@@ -4578,12 +4578,12 @@
       <c r="D9" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="18" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
       <c r="B10" s="8" t="s">
         <v>174</v>
       </c>
@@ -4597,8 +4597,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>172</v>
@@ -4610,8 +4610,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>179</v>
       </c>
@@ -4626,7 +4626,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
         <v>186</v>
@@ -4637,7 +4637,7 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>214</v>
       </c>
       <c r="B14" s="6"/>
@@ -4648,7 +4648,7 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="6" t="s">
         <v>191</v>
       </c>
@@ -4661,7 +4661,7 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="6" t="s">
         <v>193</v>
       </c>
@@ -4672,7 +4672,7 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="1" t="s">
         <v>198</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="126" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="6" t="s">
         <v>208</v>
       </c>
@@ -4712,8 +4712,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="126" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+    <row r="20" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
       <c r="B20" s="6" t="s">
         <v>207</v>
       </c>
@@ -4726,7 +4726,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="6" t="s">
         <v>205</v>
       </c>
@@ -4741,7 +4741,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="6" t="s">
         <v>211</v>
       </c>
@@ -4753,8 +4753,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="168" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:5" ht="182" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
         <v>275</v>
       </c>
       <c r="B23" s="6"/>
@@ -4764,8 +4764,8 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
       <c r="B24" s="6">
         <v>1921</v>
       </c>
@@ -4780,7 +4780,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="6">
         <v>1922</v>
       </c>
@@ -4793,7 +4793,7 @@
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="6">
         <v>1923</v>
       </c>
@@ -4806,7 +4806,7 @@
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="6">
         <v>1924</v>
       </c>
@@ -4820,8 +4820,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+    <row r="28" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
       <c r="B28" s="6">
         <v>1927</v>
       </c>
@@ -4835,8 +4835,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+    <row r="29" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A29" s="36"/>
       <c r="B29" s="6">
         <v>1929</v>
       </c>
@@ -4850,8 +4850,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
+    <row r="30" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
       <c r="B30" s="6">
         <v>1935</v>
       </c>
@@ -4865,8 +4865,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
+    <row r="31" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
       <c r="B31" s="6">
         <v>1935</v>
       </c>
@@ -4878,8 +4878,8 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
       <c r="B32" s="6">
         <v>1937</v>
       </c>
@@ -4892,7 +4892,7 @@
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="6">
         <v>1938</v>
       </c>
@@ -4905,7 +4905,7 @@
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="6">
         <v>1945</v>
       </c>
@@ -4919,8 +4919,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
+    <row r="35" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
       <c r="B35" s="6">
         <v>1945</v>
       </c>
@@ -4932,8 +4932,8 @@
       </c>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
+    <row r="36" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A36" s="36"/>
       <c r="B36" s="6">
         <v>1949</v>
       </c>
@@ -4946,7 +4946,7 @@
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="6">
         <v>1950</v>
       </c>
@@ -4959,7 +4959,7 @@
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="6">
         <v>1856</v>
       </c>
@@ -4972,7 +4972,7 @@
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="6">
         <v>1961</v>
       </c>
@@ -4984,8 +4984,8 @@
       </c>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
+    <row r="40" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A40" s="36"/>
       <c r="B40" s="6">
         <v>1978</v>
       </c>
@@ -4997,8 +4997,8 @@
       </c>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
+    <row r="41" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A41" s="36"/>
       <c r="B41" s="6">
         <v>1981</v>
       </c>
@@ -5012,8 +5012,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
+    <row r="42" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A42" s="36"/>
       <c r="B42" s="6">
         <v>1982</v>
       </c>
@@ -5028,7 +5028,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="6">
         <v>1984</v>
       </c>
@@ -5040,8 +5040,8 @@
       </c>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
+    <row r="44" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+      <c r="A44" s="36"/>
       <c r="B44" s="6">
         <v>1987</v>
       </c>
@@ -5051,12 +5051,12 @@
       <c r="D44" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="18" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="6">
         <v>1992</v>
       </c>
@@ -5071,7 +5071,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="6">
         <v>1992</v>
       </c>
@@ -5084,7 +5084,7 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="6">
         <v>1997</v>
       </c>
@@ -5099,7 +5099,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="6">
         <v>2002</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="6">
         <v>2007</v>
       </c>
@@ -5125,7 +5125,7 @@
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="6">
         <v>2012</v>
       </c>
@@ -5138,7 +5138,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="6">
         <v>2013</v>
       </c>
@@ -5151,7 +5151,7 @@
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="6">
         <v>2017</v>
       </c>
@@ -5166,7 +5166,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="6">
         <v>2021</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="B54" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="38" t="s">
         <v>287</v>
       </c>
       <c r="D54" s="15" t="s">
@@ -5193,12 +5193,12 @@
       </c>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="1:5" ht="112" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="210" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C55" s="35"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="15" t="s">
         <v>282</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="B56" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C56" s="35"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="15" t="s">
         <v>284</v>
       </c>
@@ -5217,12 +5217,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="210" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="238" x14ac:dyDescent="0.3">
       <c r="A57" s="41"/>
       <c r="B57" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="15" t="s">
         <v>291</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:6" ht="392" x14ac:dyDescent="0.3">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="6"/>
@@ -5334,7 +5334,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="70" x14ac:dyDescent="0.3">
-      <c r="A67" s="30"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="1">
         <v>1840</v>
       </c>
@@ -5349,7 +5349,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="30"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="1">
         <v>1841</v>
       </c>
@@ -5364,7 +5364,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A69" s="30"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="1" t="s">
         <v>4</v>
       </c>
@@ -5376,7 +5376,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A70" s="30"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="1">
         <v>1856</v>
       </c>
@@ -5388,7 +5388,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A71" s="30"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
@@ -5406,7 +5406,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="30"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="1">
         <v>1864</v>
       </c>
@@ -5415,7 +5415,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="30"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="1">
         <v>1894</v>
       </c>
@@ -5427,7 +5427,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A74" s="30"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="1">
         <v>1895</v>
       </c>
@@ -5442,7 +5442,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A75" s="30"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="1">
         <v>1898</v>
       </c>
@@ -5454,7 +5454,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="30"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="1">
         <v>1900</v>
       </c>
@@ -5469,7 +5469,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="30"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="1">
         <v>1905</v>
       </c>
@@ -5481,7 +5481,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A78" s="30"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="1">
         <v>1912</v>
       </c>
@@ -5496,7 +5496,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="30"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="1" t="s">
         <v>33</v>
       </c>
@@ -5505,7 +5505,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="30"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="1">
         <v>1915</v>
       </c>
@@ -5517,7 +5517,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="30"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="1" t="s">
         <v>51</v>
       </c>
@@ -5532,7 +5532,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A82" s="30"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="1">
         <v>1918</v>
       </c>
@@ -5545,13 +5545,13 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A84" s="31"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="1" t="s">
         <v>41</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="31"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="1">
         <v>1921</v>
       </c>
@@ -5575,7 +5575,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A86" s="31"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="1">
         <v>1922</v>
       </c>
@@ -5587,7 +5587,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A87" s="31"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="1">
         <v>1923</v>
       </c>
@@ -5602,7 +5602,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A88" s="31"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="1">
         <v>1924</v>
       </c>
@@ -5617,7 +5617,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="31"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="1">
         <v>1925</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A90" s="31"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="1" t="s">
         <v>50</v>
       </c>
@@ -5645,7 +5645,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A91" s="31"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="1">
         <v>1926</v>
       </c>
@@ -5660,7 +5660,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="31"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="1">
         <v>1927.4</v>
       </c>
@@ -5672,7 +5672,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A93" s="31"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="1">
         <v>1927</v>
       </c>
@@ -5687,7 +5687,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A94" s="31"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="1">
         <v>1928</v>
       </c>
@@ -5695,8 +5695,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A95" s="31"/>
+    <row r="95" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="A95" s="32"/>
       <c r="B95" s="1">
         <v>1929</v>
       </c>
@@ -5704,8 +5704,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A96" s="31"/>
+    <row r="96" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A96" s="32"/>
       <c r="B96" s="6">
         <v>1929</v>
       </c>
@@ -5720,7 +5720,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A97" s="31"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="1">
         <v>1931</v>
       </c>
@@ -5732,7 +5732,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A98" s="31"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="1">
         <v>1935</v>
       </c>
@@ -5744,7 +5744,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A99" s="31"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="1">
         <v>1935</v>
       </c>
@@ -5759,7 +5759,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A100" s="31"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="1">
         <v>1936</v>
       </c>
@@ -5774,7 +5774,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A101" s="31"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="1">
         <v>1937</v>
       </c>
@@ -5788,8 +5788,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A102" s="31"/>
+    <row r="102" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A102" s="32"/>
       <c r="B102" s="1">
         <v>1938</v>
       </c>
@@ -5801,7 +5801,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A103" s="31"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="1">
         <v>1939</v>
       </c>
@@ -5810,7 +5810,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A104" s="31"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="1" t="s">
         <v>75</v>
       </c>
@@ -5824,8 +5824,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A105" s="31"/>
+    <row r="105" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+      <c r="A105" s="32"/>
       <c r="B105" s="1">
         <v>1945</v>
       </c>
@@ -5837,7 +5837,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="31"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="1">
         <v>1946</v>
       </c>
@@ -5849,7 +5849,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="31"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="1">
         <v>1947</v>
       </c>
@@ -5860,8 +5860,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A108" s="31"/>
+    <row r="108" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A108" s="32"/>
       <c r="B108" s="1">
         <v>1948</v>
       </c>
@@ -5872,8 +5872,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A109" s="31"/>
+    <row r="109" spans="1:5" ht="112" x14ac:dyDescent="0.3">
+      <c r="A109" s="32"/>
       <c r="B109" s="1">
         <v>1949</v>
       </c>
@@ -5885,7 +5885,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="31"/>
+      <c r="A110" s="32"/>
       <c r="B110" s="1">
         <v>1949</v>
       </c>
@@ -5897,7 +5897,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="154" x14ac:dyDescent="0.3">
-      <c r="A111" s="26" t="s">
+      <c r="A111" s="27" t="s">
         <v>133</v>
       </c>
       <c r="D111" s="13" t="s">
@@ -5905,7 +5905,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A112" s="27"/>
+      <c r="A112" s="28"/>
       <c r="B112" s="1">
         <v>1950</v>
       </c>
@@ -5917,7 +5917,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="27"/>
+      <c r="A113" s="28"/>
       <c r="B113" s="1">
         <v>1950</v>
       </c>
@@ -5928,8 +5928,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="210" x14ac:dyDescent="0.3">
-      <c r="A114" s="27"/>
+    <row r="114" spans="1:8" ht="224" x14ac:dyDescent="0.3">
+      <c r="A114" s="28"/>
       <c r="B114" s="1" t="s">
         <v>96</v>
       </c>
@@ -5942,8 +5942,8 @@
       <c r="G114" s="10"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A115" s="28" t="s">
+    <row r="115" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="A115" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B115" s="1">
@@ -5962,7 +5962,7 @@
       <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="A116" s="29"/>
+      <c r="A116" s="30"/>
       <c r="B116" s="1">
         <v>1978</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="29"/>
+      <c r="A117" s="30"/>
       <c r="B117" s="1">
         <v>1981</v>
       </c>
@@ -5993,7 +5993,7 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="29"/>
+      <c r="A118" s="30"/>
       <c r="B118" s="1">
         <v>1982</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="29"/>
+      <c r="A119" s="30"/>
       <c r="B119" s="1">
         <v>1987</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="29"/>
+      <c r="A120" s="30"/>
       <c r="B120" s="1">
         <v>1992</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="29"/>
+      <c r="A121" s="30"/>
       <c r="B121" s="1">
         <v>1992</v>
       </c>
@@ -6049,7 +6049,7 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="29"/>
+      <c r="A122" s="30"/>
       <c r="B122" s="1">
         <v>1997</v>
       </c>
@@ -6061,7 +6061,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="29"/>
+      <c r="A123" s="30"/>
       <c r="B123" s="1">
         <v>2002</v>
       </c>
@@ -6073,7 +6073,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="29"/>
+      <c r="A124" s="30"/>
       <c r="B124" s="1">
         <v>2007</v>
       </c>
@@ -6085,7 +6085,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="29"/>
+      <c r="A125" s="30"/>
       <c r="B125" s="1">
         <v>2012</v>
       </c>
@@ -6097,7 +6097,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="29"/>
+      <c r="A126" s="30"/>
       <c r="B126" s="1">
         <v>2013</v>
       </c>
@@ -6109,7 +6109,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="29"/>
+      <c r="A127" s="30"/>
       <c r="B127" s="1">
         <v>2017</v>
       </c>
@@ -6121,7 +6121,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="29"/>
+      <c r="A128" s="30"/>
       <c r="B128" s="1">
         <v>2019</v>
       </c>
@@ -6133,7 +6133,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="29"/>
+      <c r="A129" s="30"/>
       <c r="B129" s="1">
         <v>2021</v>
       </c>

--- a/ZZ/史纲2.0.xlsx
+++ b/ZZ/史纲2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Revoicy\Desktop\graguate\ZZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C684CA-F736-4697-B7DF-7DD72220B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342498C3-BB9E-4A07-9E74-E08C04ED0247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{03286697-CD25-4078-B7B4-87C4533FD9B2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="319">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,11 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.《天朝田亩》耕者有其田、反封建
-2.《资质新篇》资本主义方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.《四国志》林则徐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,15 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1858中俄《玻浑条约》
-2.1858英法美俄《天津条约》
-3.1869英法俄《北京条约》</t>
-  </si>
-  <si>
-    <t>太平天国起义失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1860-1895</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,16 +80,6 @@
   </si>
   <si>
     <t>中日甲午海战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封建性：对外具有依赖性、腐朽性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.指导思想：中学为体西学为用
-2.目标：自强求富
-3.兴办军民企业、海陆军、学堂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,11 +105,6 @@
   </si>
   <si>
     <t>戊戌变法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改良运动温和的改良方案：君主立宪
-维新派与守旧派论战变法/废八股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,16 +367,6 @@
   </si>
   <si>
     <t>评价/性质/结果/意义/影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新
-民
-主
-主
-义
-革
-命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3729,12 +3690,6 @@
 《法俄革命比较观》叙述十月革命性质
 《庶民的胜利》揭露一战本质，歌颂布尔什维克胜利
 《我的马克思主义观》比较系统的介绍马克思各种观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.选择题：辛亥革命的结果标志着君主专制结束、满清政府垮台、中国民国成立；（×）封建制度结束
-2.辛亥革命的最大（积极）意义：结束了封建君主专制制度，开始建立了资产阶级共和政府
-3.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3770,6 +3725,104 @@
   1956-今天：社会主义社会初级阶段 发展生产力
 判断革命、运动成功与否：是否完成革命任务
 （彻底的、第一次提出）反帝反封建、触及封建土地制度、坚强领导核心、彻底革命性、广泛发动人民群众、科学的指导思想、崭新的纲领目标、革命方法：工人阶级及其政党（共产党）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.根本原因：农民阶级自身的局限性
+2.主观原因：天朝田亩制度空想不实现
+3.客观原因：中外联合绞杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1858中俄《玻浑条约》
+2.1858英法美俄《天津条约》
+3.1869英法俄《北京条约》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.为近代中国的一次资产阶级性质的改良运动，具有进步意义
+2.为13年后辛亥革命打下了思想基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.维新派自身的局限性：不敢否定封建，对帝国主义幻想，不发动人民群众，新旧力量对立明显
+2.触动了守旧派的利益
+3.根本原因：资产阶级的软弱性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.改良运动温和的改良方案：君主立宪
+2.维新派与守旧派论战变法/废八股
+3.维护的是资产阶级
+4.经济改革
+5.创办京师大学堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19世纪末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义和团运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.客观原因：中外反动势力的联合绞杀（即主要原因）。
+2/主观原因：对落后局势认识不够，提出不切合实际的革命纲领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.口号：扶清灭洋
+2.阻止了帝国主义列强瓜分中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.粉碎了帝国主义列强瓜分中国的狂妄计划，沉重打击了清政府的反动统治，加速了它的灭亡。
+2.标志着近代意义上的中国民族意识的觉醒
+3.一场伟大的农民起义性质的反帝爱国运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">其他：
+Q:半独立状态原因
+1.列强中华矛盾
+2.中国人民顽强抵抗给
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.《天朝田亩》耕者有其田、反封建
+2.《资质新篇》资本主义方案
+3.后期保留了儒学的封建纲常伦理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.指导思想：中学为体西学为用——属于失败原因
+2.目标：自强求富
+3.兴办军民企业、海陆军、学堂
+4.代表的地主阶级
+5.首要目的：镇压人民起义，维护清朝统治
+6.江南制造总局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.封建性：对外具有依赖性
+2.中学为体西学为用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封建守旧 PK 洋务派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择题：辛亥革命的结果标志着君主专制结束、满清政府垮台、中国民国成立；（×）封建制度结束
+2.辛亥革命的最大（积极）意义：结束了封建君主专制制度，开始建立了资产阶级共和政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.论战实质是资产阶级思想与封建思想在中国的第一次交锋
+2.核心问题：要不要变法、以什么方式推翻
+3.开阔了思想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3988,7 +4041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4117,6 +4170,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4434,8 +4490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF79771-CA3F-46DB-9942-6D6BB4D3EFB4}">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4457,103 +4513,103 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="33" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="34"/>
       <c r="C5" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4562,111 +4618,111 @@
         <v>1931</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="16" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="12"/>
@@ -4674,93 +4730,93 @@
     <row r="17" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="126" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="98" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="182" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -4770,13 +4826,13 @@
         <v>1921</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="70" x14ac:dyDescent="0.3">
@@ -4785,10 +4841,10 @@
         <v>1922</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E25" s="12"/>
     </row>
@@ -4798,10 +4854,10 @@
         <v>1923</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E26" s="12"/>
     </row>
@@ -4811,13 +4867,13 @@
         <v>1924</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="56" x14ac:dyDescent="0.3">
@@ -4826,13 +4882,13 @@
         <v>1927</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="98" x14ac:dyDescent="0.3">
@@ -4841,13 +4897,13 @@
         <v>1929</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -4856,13 +4912,13 @@
         <v>1935</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="84" x14ac:dyDescent="0.3">
@@ -4871,10 +4927,10 @@
         <v>1935</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E31" s="12"/>
     </row>
@@ -4884,10 +4940,10 @@
         <v>1937</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E32" s="12"/>
     </row>
@@ -4897,10 +4953,10 @@
         <v>1938</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E33" s="12"/>
     </row>
@@ -4910,13 +4966,13 @@
         <v>1945</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="84" x14ac:dyDescent="0.3">
@@ -4925,10 +4981,10 @@
         <v>1945</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E35" s="12"/>
     </row>
@@ -4938,10 +4994,10 @@
         <v>1949</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E36" s="12"/>
     </row>
@@ -4951,10 +5007,10 @@
         <v>1950</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E37" s="12"/>
     </row>
@@ -4964,10 +5020,10 @@
         <v>1856</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E38" s="12"/>
     </row>
@@ -4977,10 +5033,10 @@
         <v>1961</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E39" s="12"/>
     </row>
@@ -4990,10 +5046,10 @@
         <v>1978</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E40" s="12"/>
     </row>
@@ -5003,13 +5059,13 @@
         <v>1981</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -5018,13 +5074,13 @@
         <v>1982</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -5033,10 +5089,10 @@
         <v>1984</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E43" s="12"/>
     </row>
@@ -5046,13 +5102,13 @@
         <v>1987</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -5061,13 +5117,13 @@
         <v>1992</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -5076,10 +5132,10 @@
         <v>1992</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E46" s="12"/>
     </row>
@@ -5089,13 +5145,13 @@
         <v>1997</v>
       </c>
       <c r="C47" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>263</v>
-      </c>
       <c r="E47" s="12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -5104,10 +5160,10 @@
         <v>2002</v>
       </c>
       <c r="C48" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>264</v>
       </c>
       <c r="E48" s="12"/>
     </row>
@@ -5117,10 +5173,10 @@
         <v>2007</v>
       </c>
       <c r="C49" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>258</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>265</v>
       </c>
       <c r="E49" s="12"/>
     </row>
@@ -5130,11 +5186,11 @@
         <v>2012</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="12" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -5143,10 +5199,10 @@
         <v>2013</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E51" s="12"/>
     </row>
@@ -5156,13 +5212,13 @@
         <v>2017</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -5171,73 +5227,73 @@
         <v>2021</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="40" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" ht="210" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="8" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C55" s="39"/>
       <c r="D55" s="15" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A56" s="41"/>
       <c r="B56" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C56" s="39"/>
       <c r="D56" s="15" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="238" x14ac:dyDescent="0.3">
       <c r="A57" s="41"/>
       <c r="B57" s="6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="15" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" s="16" t="s">
         <v>292</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>299</v>
       </c>
       <c r="E58" s="12"/>
     </row>
@@ -5245,10 +5301,10 @@
       <c r="A59" s="41"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" s="16" t="s">
         <v>293</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>300</v>
       </c>
       <c r="E59" s="12"/>
     </row>
@@ -5256,10 +5312,10 @@
       <c r="A60" s="41"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>294</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>301</v>
       </c>
       <c r="E60" s="12"/>
     </row>
@@ -5267,10 +5323,10 @@
       <c r="A61" s="41"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E61" s="12"/>
     </row>
@@ -5278,10 +5334,10 @@
       <c r="A62" s="41"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E62" s="12"/>
     </row>
@@ -5289,10 +5345,10 @@
       <c r="A63" s="41"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E63" s="12"/>
     </row>
@@ -5300,10 +5356,10 @@
       <c r="A64" s="41"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E64" s="12"/>
     </row>
@@ -5311,26 +5367,28 @@
       <c r="A65" s="42"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:6" ht="392" x14ac:dyDescent="0.3">
       <c r="A66" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>312</v>
+      </c>
       <c r="D66" s="13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="70" x14ac:dyDescent="0.3">
@@ -5342,10 +5400,10 @@
         <v>2</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -5357,13 +5415,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A69" s="31"/>
       <c r="B69" s="1" t="s">
         <v>4</v>
@@ -5372,7 +5430,10 @@
         <v>5</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>6</v>
+        <v>313</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -5381,185 +5442,203 @@
         <v>1856</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A71" s="31"/>
       <c r="B71" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="31"/>
       <c r="B72" s="1">
-        <v>1864</v>
+        <v>1894</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A73" s="31"/>
       <c r="B73" s="1">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A74" s="31"/>
-      <c r="B74" s="1">
-        <v>1895</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A75" s="31"/>
       <c r="B75" s="1">
         <v>1898</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="31"/>
-      <c r="B76" s="1">
-        <v>1900</v>
+      <c r="B76" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>27</v>
+        <v>308</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="31"/>
       <c r="B77" s="1">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="31"/>
       <c r="B78" s="1">
+        <v>1905</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A79" s="31"/>
+      <c r="B79" s="1">
         <v>1912</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="31"/>
-      <c r="B79" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="31"/>
-      <c r="B80" s="1">
-        <v>1915</v>
+      <c r="B80" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="31"/>
-      <c r="B81" s="1" t="s">
-        <v>51</v>
+      <c r="B81" s="1">
+        <v>1915</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="31"/>
-      <c r="B82" s="1">
+      <c r="B82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A83" s="31"/>
+      <c r="B83" s="1">
         <v>1918</v>
       </c>
-      <c r="C82" s="1" t="str">
+      <c r="C83" s="1" t="str">
         <f>84:84</f>
         <v>五四运动</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A84" s="32"/>
       <c r="B84" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -5568,10 +5647,10 @@
         <v>1921</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -5580,10 +5659,10 @@
         <v>1922</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5592,13 +5671,13 @@
         <v>1923</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5607,13 +5686,13 @@
         <v>1924</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -5622,26 +5701,26 @@
         <v>1925</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A90" s="32"/>
       <c r="B90" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5650,13 +5729,13 @@
         <v>1926</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -5665,10 +5744,10 @@
         <v>1927.4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="56" x14ac:dyDescent="0.3">
@@ -5677,13 +5756,13 @@
         <v>1927</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -5692,7 +5771,7 @@
         <v>1928</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="84" x14ac:dyDescent="0.3">
@@ -5701,7 +5780,7 @@
         <v>1929</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="98" x14ac:dyDescent="0.3">
@@ -5710,13 +5789,13 @@
         <v>1929</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5725,10 +5804,10 @@
         <v>1931</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -5737,10 +5816,10 @@
         <v>1935</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5749,13 +5828,13 @@
         <v>1935</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="28" x14ac:dyDescent="0.3">
@@ -5764,13 +5843,13 @@
         <v>1936</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="70" x14ac:dyDescent="0.3">
@@ -5779,13 +5858,13 @@
         <v>1937</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="98" x14ac:dyDescent="0.3">
@@ -5794,10 +5873,10 @@
         <v>1938</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="70" x14ac:dyDescent="0.3">
@@ -5806,22 +5885,22 @@
         <v>1939</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A104" s="32"/>
       <c r="B104" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="56" x14ac:dyDescent="0.3">
@@ -5830,10 +5909,10 @@
         <v>1945</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -5842,10 +5921,10 @@
         <v>1946</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -5854,10 +5933,10 @@
         <v>1947</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -5866,10 +5945,10 @@
         <v>1948</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="112" x14ac:dyDescent="0.3">
@@ -5878,10 +5957,10 @@
         <v>1949</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -5890,18 +5969,18 @@
         <v>1949</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="154" x14ac:dyDescent="0.3">
       <c r="A111" s="27" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -5910,10 +5989,10 @@
         <v>1950</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -5922,41 +6001,41 @@
         <v>1950</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="224" x14ac:dyDescent="0.3">
       <c r="A114" s="28"/>
       <c r="B114" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="7"/>
     </row>
     <row r="115" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A115" s="29" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B115" s="1">
         <v>1956</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="7"/>
@@ -5967,13 +6046,13 @@
         <v>1978</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G116" s="10"/>
       <c r="H116" s="7"/>
@@ -5984,10 +6063,10 @@
         <v>1981</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G117" s="10"/>
       <c r="H117" s="7"/>
@@ -5998,10 +6077,10 @@
         <v>1982</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="7"/>
@@ -6012,10 +6091,10 @@
         <v>1987</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G119" s="10"/>
       <c r="H119" s="7"/>
@@ -6026,10 +6105,10 @@
         <v>1992</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G120" s="10"/>
       <c r="H120" s="7"/>
@@ -6040,10 +6119,10 @@
         <v>1992</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G121" s="10"/>
       <c r="H121" s="7"/>
@@ -6054,10 +6133,10 @@
         <v>1997</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -6066,10 +6145,10 @@
         <v>2002</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -6078,10 +6157,10 @@
         <v>2007</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -6090,10 +6169,10 @@
         <v>2012</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -6102,10 +6181,10 @@
         <v>2013</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -6114,10 +6193,10 @@
         <v>2017</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -6126,10 +6205,10 @@
         <v>2019</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -6138,10 +6217,10 @@
         <v>2021</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6151,8 +6230,8 @@
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="A111:A114"/>
     <mergeCell ref="A115:A129"/>
-    <mergeCell ref="A66:A82"/>
-    <mergeCell ref="A83:A110"/>
+    <mergeCell ref="A66:A83"/>
+    <mergeCell ref="A84:A110"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A23:A53"/>
     <mergeCell ref="C54:C57"/>
